--- a/base_temporais.xlsx
+++ b/base_temporais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.cecere\Desktop\Jurídico Imobiliário\Análise preditiva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.cecere\Documents\Projetos\A - Jurídico Imobiliário\A - 03 - Previsão de retomadas - Séries temporais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06CC2D-9D4E-4752-A94C-7F62554953A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9531FE-B2A0-4D6C-B048-D9AF8715BA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,7 +740,7 @@
         <v>45444</v>
       </c>
       <c r="B43" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -748,7 +748,23 @@
         <v>45474</v>
       </c>
       <c r="B44" s="2">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B45" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
+        <v>45536</v>
+      </c>
+      <c r="B46" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
